--- a/notebooks/Taro tissue masses.xlsx
+++ b/notebooks/Taro tissue masses.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f652623d93e77a/IT/Python/jupyter_notebooks/@Projects/spatial-averaging-wg/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{780DF810-BB43-431D-A4E3-92CFFE71C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{005FC705-F0B7-4F5A-B3CD-B6248D9194A3}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{780DF810-BB43-431D-A4E3-92CFFE71C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FDCAF1C-D84F-45AA-91F3-A7DABBDF92B4}"/>
   <bookViews>
-    <workbookView xWindow="21195" yWindow="60" windowWidth="17145" windowHeight="20850" xr2:uid="{2BABD7FE-FB7D-4765-A765-E7825CC8D156}"/>
+    <workbookView xWindow="15120" yWindow="435" windowWidth="22980" windowHeight="18810" xr2:uid="{2BABD7FE-FB7D-4765-A765-E7825CC8D156}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="references" sheetId="2" r:id="rId1"/>
+    <sheet name="Nagaoka data" sheetId="1" r:id="rId2"/>
+    <sheet name="Gabriel category adjusted data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>tissue</t>
   </si>
@@ -79,19 +81,88 @@
   </si>
   <si>
     <t>body_weight</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>white matter makes up half of the human brain</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3201847/</t>
+  </si>
+  <si>
+    <t>white matter</t>
+  </si>
+  <si>
+    <t>grey matter</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/health/types-of-body-fat</t>
+  </si>
+  <si>
+    <t>There are three types of fat: white, brown and beige. Adults have very little brown fat and hence most of their fat is white.  White fat cells are bigger and contain more lipids, and hence would have lower conductivity. Hence I assume that the infiltrated fat in the Gabriel data is white fat. Note that the Hurt fat dielectric values closely correspond with the Gabriel non-infiltrated fat</t>
+  </si>
+  <si>
+    <t>fat (not infiltrated)</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/Article/FullText/489672</t>
+  </si>
+  <si>
+    <t>Approximately 80% of the bone mass is in the cortical compartment. In the trabecular compartment, 20% of the volume is composed of bone, and the remaining space is filled with marrow and fat.</t>
+  </si>
+  <si>
+    <t>bone cortical</t>
+  </si>
+  <si>
+    <t>bone cancellous</t>
+  </si>
+  <si>
+    <t>skin - dry</t>
+  </si>
+  <si>
+    <t>fat (ave. infiltrated)</t>
+  </si>
+  <si>
+    <t>assume pancreas has similar properties to infiltrated fat</t>
+  </si>
+  <si>
+    <t>bone marrow (not infiltrated)</t>
+  </si>
+  <si>
+    <t>Tissue mass proportions for TARO phantom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,14 +182,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,11 +507,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED4FAE-D2AD-407D-97DA-BCA4894A96A5}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F547CDF7-F918-4123-8AEB-4C76F1C798D9}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED4FAE-D2AD-407D-97DA-BCA4894A96A5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -551,6 +690,164 @@
       </c>
       <c r="B14">
         <v>65000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
+        <v>59646.799999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42B74E-B4D4-4720-8DD8-F61BD564AAB5}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>26556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>14445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <f>11186*0.8</f>
+        <v>8948.8000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <f>11186*0.2*0.8</f>
+        <v>1789.7600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <f>11186*0.2*0.2</f>
+        <v>447.44000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f>0.5*1399</f>
+        <v>699.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>0.5*1399</f>
+        <v>699.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
